--- a/classification/droptc/modern-bert/unfreeze/14298463/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/14298463/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.970881462097168</v>
+        <v>0.9944790601730347</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.951593816280365</v>
+        <v>0.9994623064994812</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9891731739044189</v>
+        <v>0.9711551666259766</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5496194362640381</v>
+        <v>0.9985931515693665</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9765000343322754</v>
+        <v>0.9984040856361389</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9705451130867004</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8367310762405396</v>
+        <v>0.920915961265564</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9913058876991272</v>
+        <v>0.9993473887443542</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9962862730026245</v>
+        <v>0.9990198612213135</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9898927807807922</v>
+        <v>0.9939405918121338</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9581629037857056</v>
+        <v>0.9988208413124084</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9951208233833313</v>
+        <v>0.99726402759552</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9973562955856323</v>
+        <v>0.9928187727928162</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9391505122184753</v>
+        <v>0.9982962012290955</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9376205801963806</v>
+        <v>0.9984839558601379</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9913058876991272</v>
+        <v>0.9984900951385498</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9518222212791443</v>
+        <v>0.9983805418014526</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9956942796707153</v>
+        <v>0.9981827735900879</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9897488951683044</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9980617165565491</v>
+        <v>0.9968234300613403</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9492243528366089</v>
+        <v>0.9834256768226624</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9827061891555786</v>
+        <v>0.6758171916007996</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9880130290985107</v>
+        <v>0.9993959665298462</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9154960513114929</v>
+        <v>0.9983756542205811</v>
       </c>
     </row>
     <row r="26">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9391505122184753</v>
+        <v>0.4853151738643646</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9948586225509644</v>
+        <v>0.7128250598907471</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9207565784454346</v>
+        <v>0.9993259906768799</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9784426093101501</v>
+        <v>0.9990267753601074</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5383697748184204</v>
+        <v>0.9986523985862732</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9951133131980896</v>
+        <v>0.9897184371948242</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9974485039710999</v>
+        <v>0.9992648959159851</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9977754950523376</v>
+        <v>0.9990891218185425</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9984495639801025</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.998572826385498</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9958260059356689</v>
+        <v>0.9035880565643311</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5108500719070435</v>
+        <v>0.9987345337867737</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.983643114566803</v>
+        <v>0.9994694590568542</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9865679740905762</v>
+        <v>0.998431384563446</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9947552680969238</v>
+        <v>0.994473397731781</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.779209315776825</v>
+        <v>0.999289870262146</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8091889023780823</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9967844486236572</v>
+        <v>0.9861525297164917</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5778535008430481</v>
+        <v>0.9291113018989563</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9940407872200012</v>
+        <v>0.9929578304290771</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.996764063835144</v>
+        <v>0.9897488951683044</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9918366074562073</v>
+        <v>0.9993405938148499</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9943721294403076</v>
+        <v>0.9986051917076111</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9552803635597229</v>
+        <v>0.9988868832588196</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9955251812934875</v>
+        <v>0.9964726567268372</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4806042611598969</v>
+        <v>0.9364915490150452</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.997225821018219</v>
+        <v>0.9984429478645325</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5178303122520447</v>
+        <v>0.9990267753601074</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9862490296363831</v>
+        <v>0.9980846643447876</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9686283469200134</v>
+        <v>0.9911946058273315</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9672391414642334</v>
+        <v>0.8731873035430908</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9305967092514038</v>
+        <v>0.9990711212158203</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9097704887390137</v>
+        <v>0.989159882068634</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9978093504905701</v>
+        <v>0.9820870161056519</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9391505122184753</v>
+        <v>0.99919193983078</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9606919288635254</v>
+        <v>0.9924445748329163</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9782190322875977</v>
+        <v>0.9699147939682007</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9971345663070679</v>
+        <v>0.9883339405059814</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9784426093101501</v>
+        <v>0.9669240117073059</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9766948223114014</v>
+        <v>0.9858726263046265</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9993552565574646</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9970597624778748</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5391204357147217</v>
+        <v>0.9780805706977844</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8400833606719971</v>
+        <v>0.9994072914123535</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9978378415107727</v>
+        <v>0.9884309768676758</v>
       </c>
     </row>
     <row r="71">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9939070343971252</v>
+        <v>0.9672666192054749</v>
       </c>
     </row>
     <row r="72">
@@ -2443,14 +2443,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3999314904212952</v>
+        <v>0.9990652203559875</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9940866231918335</v>
+        <v>0.9844473600387573</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6555752158164978</v>
+        <v>0.9941449761390686</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9940109848976135</v>
+        <v>0.9980326294898987</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9971809387207031</v>
+        <v>0.999377429485321</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9975371360778809</v>
+        <v>0.998156726360321</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9972680807113647</v>
+        <v>0.9989626407623291</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9914930462837219</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9834444522857666</v>
+        <v>0.9921562671661377</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9975920915603638</v>
+        <v>0.99880051612854</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9932417273521423</v>
+        <v>0.9989971518516541</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9463398456573486</v>
+        <v>0.9980244636535645</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7950000762939453</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9383128881454468</v>
+        <v>0.9986024498939514</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9949200749397278</v>
+        <v>0.9992569088935852</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9151322245597839</v>
+        <v>0.9991794228553772</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9870480895042419</v>
+        <v>0.9987204074859619</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9762327671051025</v>
+        <v>0.9685045480728149</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9894002079963684</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9914138317108154</v>
+        <v>0.9069139957427979</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7076420187950134</v>
+        <v>0.9991270899772644</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9944750666618347</v>
+        <v>0.9975380897521973</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9908610582351685</v>
+        <v>0.9993336796760559</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9216542840003967</v>
+        <v>0.9987807869911194</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9727675914764404</v>
+        <v>0.9983671307563782</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9866496920585632</v>
+        <v>0.9985997080802917</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9951133131980896</v>
+        <v>0.9888152480125427</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9689513444900513</v>
+        <v>0.9982321858406067</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9973795413970947</v>
+        <v>0.9991574287414551</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4461235702037811</v>
+        <v>0.9943873286247253</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9941461086273193</v>
+        <v>0.988979697227478</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4401298761367798</v>
+        <v>0.998833954334259</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.994150698184967</v>
+        <v>0.996243953704834</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9721580743789673</v>
+        <v>0.9982170462608337</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.959851861000061</v>
+        <v>0.9993764758110046</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9953450560569763</v>
+        <v>0.9974028468132019</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9238625168800354</v>
+        <v>0.8311381340026855</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9552803635597229</v>
+        <v>0.9874165058135986</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5244300365447998</v>
+        <v>0.9954330921173096</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9967681169509888</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.957965075969696</v>
+        <v>0.998833954334259</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8864680528640747</v>
+        <v>0.9648012518882751</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4549977481365204</v>
+        <v>0.9990231990814209</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9984452128410339</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9983592629432678</v>
+        <v>0.9978379607200623</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9960843324661255</v>
+        <v>0.9990485310554504</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5887633562088013</v>
+        <v>0.9950651526451111</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9752026200294495</v>
+        <v>0.9804674386978149</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.995225191116333</v>
+        <v>0.8277575969696045</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9978060126304626</v>
+        <v>0.9992871880531311</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8077237606048584</v>
+        <v>0.9284405708312988</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9930620789527893</v>
+        <v>0.9939794540405273</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9967922568321228</v>
+        <v>0.9979904890060425</v>
       </c>
     </row>
     <row r="125">
@@ -3927,14 +3927,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8879103064537048</v>
+        <v>0.99720299243927</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7497192025184631</v>
+        <v>0.9952501058578491</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9762327671051025</v>
+        <v>0.9968234300613403</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9903619289398193</v>
+        <v>0.9993038177490234</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9435862302780151</v>
+        <v>0.9291621446609497</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.559461772441864</v>
+        <v>0.990501880645752</v>
       </c>
     </row>
     <row r="131">
@@ -4095,14 +4095,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8796339631080627</v>
+        <v>0.7095755338668823</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9950413107872009</v>
+        <v>0.999182403087616</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9967854022979736</v>
+        <v>0.6008711457252502</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9930332899093628</v>
+        <v>0.9937012195587158</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9982838034629822</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8796339631080627</v>
+        <v>0.9995385408401489</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5251792669296265</v>
+        <v>0.8690182566642761</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9903201460838318</v>
+        <v>0.9984026551246643</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9967505931854248</v>
+        <v>0.9990240335464478</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8355445265769958</v>
+        <v>0.99444180727005</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.998127281665802</v>
+        <v>0.9859755635261536</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9929885268211365</v>
+        <v>0.9981385469436646</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9936755299568176</v>
+        <v>0.9990288019180298</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9984846711158752</v>
+        <v>0.9989731311798096</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9768481254577637</v>
+        <v>0.9988834261894226</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9353342652320862</v>
+        <v>0.9967508316040039</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9718217849731445</v>
+        <v>0.9915277361869812</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.705755889415741</v>
+        <v>0.9889096617698669</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9984099864959717</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9292758107185364</v>
+        <v>0.957446277141571</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9314765930175781</v>
+        <v>0.5498644709587097</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9966013431549072</v>
+        <v>0.9950651526451111</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9972653388977051</v>
+        <v>0.9851211309432983</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5080338716506958</v>
+        <v>0.9792004823684692</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6111289262771606</v>
+        <v>0.9860801100730896</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6269764304161072</v>
+        <v>0.997601330280304</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.997235119342804</v>
+        <v>0.9986497759819031</v>
       </c>
     </row>
     <row r="158">
@@ -4851,14 +4851,14 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4412321746349335</v>
+        <v>0.9991266131401062</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9601645469665527</v>
+        <v>0.9994354844093323</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9852585792541504</v>
+        <v>0.9485483765602112</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9889821410179138</v>
+        <v>0.9994099140167236</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9972023963928223</v>
+        <v>0.9493414759635925</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9938575625419617</v>
+        <v>0.9993485808372498</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.995497465133667</v>
+        <v>0.9780805706977844</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9422475099563599</v>
+        <v>0.9950651526451111</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.994559109210968</v>
+        <v>0.9993311166763306</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9974244832992554</v>
+        <v>0.9990198612213135</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9246401190757751</v>
+        <v>0.9988561868667603</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9944776296615601</v>
+        <v>0.9993801116943359</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9376205801963806</v>
+        <v>0.9978706836700439</v>
       </c>
     </row>
     <row r="171">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9480950236320496</v>
+        <v>0.9873844385147095</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9938329458236694</v>
+        <v>0.9968340992927551</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6390901803970337</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9898277521133423</v>
+        <v>0.9992517828941345</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9583565592765808</v>
+        <v>0.9994895458221436</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6715599894523621</v>
+        <v>0.9983035326004028</v>
       </c>
     </row>
     <row r="177">
@@ -5383,14 +5383,14 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9924170970916748</v>
+        <v>0.8531233072280884</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9956942796707153</v>
+        <v>0.9911439418792725</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9932021498680115</v>
+        <v>0.9991551637649536</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9652257561683655</v>
+        <v>0.9977686405181885</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9148942828178406</v>
+        <v>0.9973514080047607</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9930135607719421</v>
+        <v>0.9994045495986938</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7927188277244568</v>
+        <v>0.99444180727005</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.957965075969696</v>
+        <v>0.9989099502563477</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9830636382102966</v>
+        <v>0.9987478256225586</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9694144725799561</v>
+        <v>0.6998755931854248</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9740909337997437</v>
+        <v>0.9988139867782593</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9927099943161011</v>
+        <v>0.8349986672401428</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.957965075969696</v>
+        <v>0.9566645622253418</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8804159164428711</v>
+        <v>0.9889096617698669</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.987181544303894</v>
+        <v>0.9779207110404968</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9622604250907898</v>
+        <v>0.9236772656440735</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9920662641525269</v>
+        <v>0.9994428753852844</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9762327671051025</v>
+        <v>0.9662696123123169</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9922202229499817</v>
+        <v>0.9989276528358459</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9842714667320251</v>
+        <v>0.9451597929000854</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.992453396320343</v>
+        <v>0.9889096617698669</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9935601949691772</v>
+        <v>0.5823765397071838</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.6449337005615234</v>
+        <v>0.989159882068634</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9951417446136475</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.8647735714912415</v>
+        <v>0.9958339929580688</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9979708790779114</v>
+        <v>0.9566645622253418</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9501435160636902</v>
+        <v>0.9989141225814819</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9246401190757751</v>
+        <v>0.9898627996444702</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9929401874542236</v>
+        <v>0.9927501678466797</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9795053005218506</v>
+        <v>0.9985931515693665</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7695943713188171</v>
+        <v>0.99444180727005</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9688090085983276</v>
+        <v>0.9984996318817139</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9207565784454346</v>
+        <v>0.9987461566925049</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9784440398216248</v>
+        <v>0.9987428784370422</v>
       </c>
     </row>
   </sheetData>
